--- a/Gross_Performance/Performance_result.xlsx
+++ b/Gross_Performance/Performance_result.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="설명" sheetId="3" r:id="rId1"/>
     <sheet name="퀀트와이즈_직접종목추출결과" sheetId="1" r:id="rId2"/>
-    <sheet name="print" sheetId="4" r:id="rId3"/>
-    <sheet name="데이터가이드_결과" sheetId="2" r:id="rId4"/>
+    <sheet name="퀀트와이즈_직접정목추출결과_적자종목제외" sheetId="5" r:id="rId3"/>
+    <sheet name="print" sheetId="4" r:id="rId4"/>
+    <sheet name="데이터가이드_결과" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>영업이익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +512,10 @@
     <t>중소형주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>대형주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1434,6 +1439,3307 @@
               <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>소형주</a:t>
             </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$15:$AG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.8848139859999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.945673894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.920922628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.816043699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9844500439999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3138143769999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0552044290000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5285308945399998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7853679380599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.54756591192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7056428487299993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3388233243199901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5401506935699993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4316528176699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.39359348955999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47E7-4722-84B8-33D134B370DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$16:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.8375996750000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3408008259999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4532299529999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6522034720000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6815799819999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9543264709999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.030251845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1015950839999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.36933329338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.56212256335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67499863409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3529809875900001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4367004692700007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2651696528899903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4646876969399898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47E7-4722-84B8-33D134B370DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275503552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275508128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275508128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275503552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>KOSPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>44.140454738430002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.173998910000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.079184499999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.595264407999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.274758396999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.015626565999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.970336256919992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.651947457559999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.15700980008999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.96776502095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.723496060239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126.64833847726899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.58331107338999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135.31656198030001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153.54000534969902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D94-4BE9-9C53-2C9A30F939B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$20:$AG$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>33.692265812339997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.158171213999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.682232085000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.463548768999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.759759453999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.128593176000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.812750658559999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.622502530230008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.151115943380006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.424190338059802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.639625327089902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.138817951210001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.679605062029907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.50524609864999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.174113296919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D94-4BE9-9C53-2C9A30F939B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275503552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275508128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275508128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275503552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>중소형주</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$23:$AG$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.6599095144300007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0685821549999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0382697299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6942097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8918427510000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9197158759999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.171676100920001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.992682455559999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.158262570670001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.502993662790001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.809730447309899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.944013646979901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.196545800479999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.747663158550001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.657705723099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71E0-4EDE-804C-25F1F8729898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$24:$AG$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.2638489373400006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8368692480000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4897961740000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4515445519999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7605367269999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4892142380000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2370574335600004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.55696642423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.041764565379999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.7414007707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5687996261099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.717111897009898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.3567796882199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.90023131125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.527616329560001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71E0-4EDE-804C-25F1F8729898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275503552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275508128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275508128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275503552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>KOSPI200</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$3:$AG$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.30909536443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.084500884000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.827553887999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.662693849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.367587651999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.454279098000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.655075826000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.865205822109999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.227521700479997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111.46653911388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110.648713975129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.06835666486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102.14179770788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.03851197619001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135.51157393314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D60-4CF1-B5AB-EA0FE8CD7FFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>19.84328053134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.777751828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.873386592000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.636621306999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.218348227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.524564390999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.017990342000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.867436505900002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.634608569999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.40135195034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.134006008279997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.005812165029994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.98194000478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.222401485630002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.992612528709898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D60-4CF1-B5AB-EA0FE8CD7FFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1927340399"/>
+        <c:axId val="1927337903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1927340399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927337903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927337903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927340399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>대형주</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$7:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>35.091726481000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.805845131000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.732210330000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.730514034000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.143130167999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.473455719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.806248011999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.162154491999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.848735205419999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.64157224116001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108.35888361292999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.94812065344901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.002703636609894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107.86230568605001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124.34152522183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABD2-4C2F-AD36-E328685B27AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$8:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>20.127115767999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.274388366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.815518961999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.841353445999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.229909726999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.047196395999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.556206539999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.497208534000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.298907049999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.222956699829894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.632300069979905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.133316118959897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.169525215789903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.470234432619989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.097356072779903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABD2-4C2F-AD36-E328685B27AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1927340399"/>
+        <c:axId val="1927337903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1927340399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927337903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927337903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927340399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>중형주</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.1167816574300007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9388574959999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7816932620000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2725660599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0271696429999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3040751899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1427152279200001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6308797350600006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.023204998979999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0845300086700007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7117533826100004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.97263301026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.91531752449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.588905308379999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.686513829869998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83D4-4EBF-9C67-C3C484A436FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>순이익</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>퀀트와이즈_직접종목추출결과!$S$12:$AG$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.3410618733399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7896866469999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4695541109999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8499815169999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75864332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0436170010000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.85473248756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56006870132999897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3780791490000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4480167436700002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.8326992730000091E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.3482565280899896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6544819875799996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3977109438799999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8923039858799893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83D4-4EBF-9C67-C3C484A436FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1927340399"/>
+        <c:axId val="1927337903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1927340399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927337903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927337903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927340399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>소형주</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
@@ -1947,7 +5253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2496,7 +5802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5878,7 +9184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$3</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5899,7 +9205,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5953,61 +9259,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$3:$AG$3</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$3:$AG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>37.30909536443</c:v>
+                  <c:v>38.784586658430001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.084500884000001</c:v>
+                  <c:v>38.437919543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.827553887999997</c:v>
+                  <c:v>60.266560472999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.662693849</c:v>
+                  <c:v>54.406867054000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.367587651999997</c:v>
+                  <c:v>54.464627460000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.454279098000001</c:v>
+                  <c:v>60.323615808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.655075826000001</c:v>
+                  <c:v>59.246333358999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.865205822109999</c:v>
+                  <c:v>58.979451992999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.227521700479997</c:v>
+                  <c:v>93.71430384848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.46653911388</c:v>
+                  <c:v>114.10179519498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.648713975129</c:v>
+                  <c:v>114.133978824849</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.06835666486</c:v>
+                  <c:v>114.70420593159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102.14179770788</c:v>
+                  <c:v>109.24460536092</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.03851197619001</c:v>
+                  <c:v>121.06437974452001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>135.51157393314</c:v>
+                  <c:v>138.67949648429999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D60-4CF1-B5AB-EA0FE8CD7FFE}"/>
+              <c16:uniqueId val="{00000001-6F82-49F9-A093-8B1A95D3A7CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6016,7 +9322,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$4</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6037,7 +9343,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6091,61 +9397,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$4:$AG$4</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$4:$AG$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>19.84328053134</c:v>
+                  <c:v>29.151140446340001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.777751828</c:v>
+                  <c:v>28.060969638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.873386592000003</c:v>
+                  <c:v>51.668083166000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.636621306999999</c:v>
+                  <c:v>51.714156490000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.218348227</c:v>
+                  <c:v>51.360523129000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.524564390999998</c:v>
+                  <c:v>56.593046471000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.017990342000001</c:v>
+                  <c:v>43.486434866000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.867436505900002</c:v>
+                  <c:v>57.501510728</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.634608569999997</c:v>
+                  <c:v>87.582840386000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.40135195034</c:v>
+                  <c:v>89.707483770849905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.134006008279997</c:v>
+                  <c:v>88.271193647649994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.005812165029994</c:v>
+                  <c:v>83.559720984639895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.98194000478</c:v>
+                  <c:v>79.477714236179992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83.222401485630002</c:v>
+                  <c:v>95.04762444971</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.992612528709898</c:v>
+                  <c:v>95.576067143849897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D60-4CF1-B5AB-EA0FE8CD7FFE}"/>
+              <c16:uniqueId val="{00000002-6F82-49F9-A093-8B1A95D3A7CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6157,12 +9463,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1927340399"/>
-        <c:axId val="1927337903"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1927340399"/>
+        <c:axId val="1275503552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6205,7 +9512,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927337903"/>
+        <c:crossAx val="1275508128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6213,7 +9520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1927337903"/>
+        <c:axId val="1275508128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +9571,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927340399"/>
+        <c:crossAx val="1275503552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6382,7 +9689,6 @@
               <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>대형주</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6428,7 +9734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$7</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6449,7 +9755,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6503,61 +9809,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$7:$AG$7</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$7:$AG$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>35.091726481000002</c:v>
+                  <c:v>36.480545223999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.805845131000002</c:v>
+                  <c:v>37.105416755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.732210330000001</c:v>
+                  <c:v>57.040914770000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.730514034000002</c:v>
+                  <c:v>53.901054707999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.143130167999999</c:v>
+                  <c:v>52.382915646000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.473455719</c:v>
+                  <c:v>58.095910689999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.806248011999998</c:v>
+                  <c:v>57.798660155999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.162154491999999</c:v>
+                  <c:v>54.659265001999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.848735205419999</c:v>
+                  <c:v>86.998747229420005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107.64157224116001</c:v>
+                  <c:v>110.46477135816001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.35888361292999</c:v>
+                  <c:v>109.91376561292999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.94812065344901</c:v>
+                  <c:v>109.704324830289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.002703636609894</c:v>
+                  <c:v>101.38676527291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.86230568605001</c:v>
+                  <c:v>113.56889882175</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.34152522183</c:v>
+                  <c:v>125.8822996266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABD2-4C2F-AD36-E328685B27AB}"/>
+              <c16:uniqueId val="{00000000-E6A4-43B1-8124-5C7642096768}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6566,7 +9872,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$8</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6587,7 +9893,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6641,61 +9947,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$8:$AG$8</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$8:$AG$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>20.127115767999999</c:v>
+                  <c:v>28.428416875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.274388366</c:v>
+                  <c:v>27.321301966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.815518961999999</c:v>
+                  <c:v>49.192435910999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.841353445999999</c:v>
+                  <c:v>52.012004216999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.229909726999999</c:v>
+                  <c:v>49.999222727000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.047196395999997</c:v>
+                  <c:v>54.639378938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.556206539999998</c:v>
+                  <c:v>42.575693225000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.497208534000002</c:v>
+                  <c:v>54.065536106000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.298907049999997</c:v>
+                  <c:v>81.109351377999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.222956699829894</c:v>
+                  <c:v>85.68278956735989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81.632300069979905</c:v>
+                  <c:v>86.070825700979995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.133316118959897</c:v>
+                  <c:v>80.421706054199902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.169525215789903</c:v>
+                  <c:v>74.322825373809991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.470234432619989</c:v>
+                  <c:v>87.605014787399995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.097356072779903</c:v>
+                  <c:v>88.646496967359894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABD2-4C2F-AD36-E328685B27AB}"/>
+              <c16:uniqueId val="{00000001-E6A4-43B1-8124-5C7642096768}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6707,12 +10013,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1927340399"/>
-        <c:axId val="1927337903"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1927340399"/>
+        <c:axId val="1275503552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6755,7 +10062,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927337903"/>
+        <c:crossAx val="1275508128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6763,7 +10070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1927337903"/>
+        <c:axId val="1275508128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6814,7 +10121,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927340399"/>
+        <c:crossAx val="1275503552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6932,7 +10239,6 @@
               <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>중형주</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6978,7 +10284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$11</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6999,7 +10305,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7053,61 +10359,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$11:$AG$11</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.1167816574300007</c:v>
+                  <c:v>5.7750955284300005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9388574959999998</c:v>
+                  <c:v>5.1229082610000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7816932620000001</c:v>
+                  <c:v>6.1173471020000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2725660599999999</c:v>
+                  <c:v>5.8781660010000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0271696429999997</c:v>
+                  <c:v>5.9073927069999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3040751899999998</c:v>
+                  <c:v>7.6059014989999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1427152279200001</c:v>
+                  <c:v>8.1164716719199994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6308797350600006</c:v>
+                  <c:v>9.4641515610200013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.023204998979999</c:v>
+                  <c:v>11.37289463261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0845300086700007</c:v>
+                  <c:v>8.9554277508700011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7117533826100004</c:v>
+                  <c:v>12.10408759858</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.97263301026</c:v>
+                  <c:v>12.60519032266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.91531752449</c:v>
+                  <c:v>13.656395106910001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.588905308379999</c:v>
+                  <c:v>16.316010340879998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.686513829869998</c:v>
+                  <c:v>21.264112233540001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83D4-4EBF-9C67-C3C484A436FC}"/>
+              <c16:uniqueId val="{00000000-CACD-43E1-896D-84DBF585DABD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7116,7 +10422,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$A$12</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$R$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7137,7 +10443,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$2:$AG$2</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$2:$AG$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7191,61 +10497,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>퀀트와이즈_직접종목추출결과!$S$12:$AG$12</c:f>
+              <c:f>퀀트와이즈_직접정목추출결과_적자종목제외!$S$12:$AG$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.3410618733399999</c:v>
+                  <c:v>3.4262492623400003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7896866469999999</c:v>
+                  <c:v>4.4960684219999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4695541109999999</c:v>
+                  <c:v>5.0365662210000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8499815169999998</c:v>
+                  <c:v>4.7993410799999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.75864332</c:v>
+                  <c:v>5.0789567450000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0436170010000003</c:v>
+                  <c:v>6.5348877669999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.85473248756</c:v>
+                  <c:v>5.2068055885599902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56006870132999897</c:v>
+                  <c:v>7.4553713402299993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3780791490000004</c:v>
+                  <c:v>9.6724312720000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4480167436700002</c:v>
+                  <c:v>8.1792782073499897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.8326992730000091E-2</c:v>
+                  <c:v>7.8938009920200001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.3482565280899896</c:v>
+                  <c:v>8.36413090942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6544819875799996</c:v>
+                  <c:v>9.9200792189500007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3977109438799999</c:v>
+                  <c:v>10.6350616583599</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8923039858799893</c:v>
+                  <c:v>12.062928632619899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83D4-4EBF-9C67-C3C484A436FC}"/>
+              <c16:uniqueId val="{00000001-CACD-43E1-896D-84DBF585DABD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7257,12 +10563,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1927340399"/>
-        <c:axId val="1927337903"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275503552"/>
+        <c:axId val="1275508128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1927340399"/>
+        <c:axId val="1275503552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7305,7 +10612,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927337903"/>
+        <c:crossAx val="1275508128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7313,7 +10620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1927337903"/>
+        <c:axId val="1275508128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7364,7 +10671,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1927340399"/>
+        <c:crossAx val="1275503552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7566,6 +10873,246 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8442,7 +11989,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8550,11 +12097,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8565,11 +12107,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8601,9 +12138,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8958,7 +12492,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9066,11 +12600,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9081,11 +12610,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9117,9 +12641,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9474,7 +12995,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9582,11 +13103,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9597,11 +13113,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9633,9 +13144,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9989,7 +13497,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10505,7 +14013,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11021,7 +14529,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11537,7 +15045,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12053,7 +15561,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12569,7 +16077,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13085,7 +16593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13601,7 +17109,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13764,6 +17272,3063 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14315,6 +20880,201 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14797,8 +21557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="N16" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16929,11 +23689,2138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AG24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA13" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:P2" si="0">B2+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AG2" si="1">S2+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>38784586658.43</v>
+      </c>
+      <c r="C3">
+        <v>38437919543</v>
+      </c>
+      <c r="D3">
+        <v>60266560473</v>
+      </c>
+      <c r="E3">
+        <v>54406867054</v>
+      </c>
+      <c r="F3">
+        <v>54464627460</v>
+      </c>
+      <c r="G3">
+        <v>60323615808</v>
+      </c>
+      <c r="H3">
+        <v>59246333359</v>
+      </c>
+      <c r="I3">
+        <v>58979451993</v>
+      </c>
+      <c r="J3">
+        <v>93714303848.479996</v>
+      </c>
+      <c r="K3">
+        <v>114101795194.98</v>
+      </c>
+      <c r="L3">
+        <v>114133978824.849</v>
+      </c>
+      <c r="M3">
+        <v>114704205931.59</v>
+      </c>
+      <c r="N3">
+        <v>109244605360.92</v>
+      </c>
+      <c r="O3">
+        <v>121064379744.52</v>
+      </c>
+      <c r="P3">
+        <v>138679496484.29999</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f>B3/1000000000</f>
+        <v>38.784586658430001</v>
+      </c>
+      <c r="T3" s="1">
+        <f>C3/1000000000</f>
+        <v>38.437919543</v>
+      </c>
+      <c r="U3" s="1">
+        <f>D3/1000000000</f>
+        <v>60.266560472999998</v>
+      </c>
+      <c r="V3" s="1">
+        <f>E3/1000000000</f>
+        <v>54.406867054000003</v>
+      </c>
+      <c r="W3" s="1">
+        <f>F3/1000000000</f>
+        <v>54.464627460000003</v>
+      </c>
+      <c r="X3" s="1">
+        <f>G3/1000000000</f>
+        <v>60.323615808</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>H3/1000000000</f>
+        <v>59.246333358999998</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>I3/1000000000</f>
+        <v>58.979451992999998</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>J3/1000000000</f>
+        <v>93.71430384848</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>K3/1000000000</f>
+        <v>114.10179519498</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>L3/1000000000</f>
+        <v>114.133978824849</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>M3/1000000000</f>
+        <v>114.70420593159</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>N3/1000000000</f>
+        <v>109.24460536092</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>O3/1000000000</f>
+        <v>121.06437974452001</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>P3/1000000000</f>
+        <v>138.67949648429999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>29151140446.34</v>
+      </c>
+      <c r="C4">
+        <v>28060969638</v>
+      </c>
+      <c r="D4">
+        <v>51668083166</v>
+      </c>
+      <c r="E4">
+        <v>51714156490</v>
+      </c>
+      <c r="F4">
+        <v>51360523129</v>
+      </c>
+      <c r="G4">
+        <v>56593046471</v>
+      </c>
+      <c r="H4">
+        <v>43486434866</v>
+      </c>
+      <c r="I4">
+        <v>57501510728</v>
+      </c>
+      <c r="J4">
+        <v>87582840386</v>
+      </c>
+      <c r="K4">
+        <v>89707483770.849899</v>
+      </c>
+      <c r="L4">
+        <v>88271193647.649994</v>
+      </c>
+      <c r="M4">
+        <v>83559720984.639893</v>
+      </c>
+      <c r="N4">
+        <v>79477714236.179993</v>
+      </c>
+      <c r="O4">
+        <v>95047624449.710007</v>
+      </c>
+      <c r="P4">
+        <v>95576067143.849899</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="1">
+        <f>B4/1000000000</f>
+        <v>29.151140446340001</v>
+      </c>
+      <c r="T4" s="1">
+        <f>C4/1000000000</f>
+        <v>28.060969638</v>
+      </c>
+      <c r="U4" s="1">
+        <f>D4/1000000000</f>
+        <v>51.668083166000002</v>
+      </c>
+      <c r="V4" s="1">
+        <f>E4/1000000000</f>
+        <v>51.714156490000001</v>
+      </c>
+      <c r="W4" s="1">
+        <f>F4/1000000000</f>
+        <v>51.360523129000001</v>
+      </c>
+      <c r="X4" s="1">
+        <f>G4/1000000000</f>
+        <v>56.593046471000001</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>H4/1000000000</f>
+        <v>43.486434866000003</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>I4/1000000000</f>
+        <v>57.501510728</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>J4/1000000000</f>
+        <v>87.582840386000001</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>K4/1000000000</f>
+        <v>89.707483770849905</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>L4/1000000000</f>
+        <v>88.271193647649994</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>M4/1000000000</f>
+        <v>83.559720984639895</v>
+      </c>
+      <c r="AE4" s="1">
+        <f>N4/1000000000</f>
+        <v>79.477714236179992</v>
+      </c>
+      <c r="AF4" s="1">
+        <f>O4/1000000000</f>
+        <v>95.04762444971</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>P4/1000000000</f>
+        <v>95.576067143849897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:P6" si="2">B6+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:AG6" si="3">S6+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>2008</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>2009</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>36480545224</v>
+      </c>
+      <c r="C7">
+        <v>37105416755</v>
+      </c>
+      <c r="D7">
+        <v>57040914770</v>
+      </c>
+      <c r="E7">
+        <v>53901054708</v>
+      </c>
+      <c r="F7">
+        <v>52382915646</v>
+      </c>
+      <c r="G7">
+        <v>58095910690</v>
+      </c>
+      <c r="H7">
+        <v>57798660156</v>
+      </c>
+      <c r="I7">
+        <v>54659265002</v>
+      </c>
+      <c r="J7">
+        <v>86998747229.419998</v>
+      </c>
+      <c r="K7">
+        <v>110464771358.16</v>
+      </c>
+      <c r="L7">
+        <v>109913765612.92999</v>
+      </c>
+      <c r="M7">
+        <v>109704324830.289</v>
+      </c>
+      <c r="N7">
+        <v>101386765272.91</v>
+      </c>
+      <c r="O7">
+        <v>113568898821.75</v>
+      </c>
+      <c r="P7">
+        <v>125882299626.60001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7:AG8" si="4">B7/1000000000</f>
+        <v>36.480545223999997</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="4"/>
+        <v>37.105416755</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="4"/>
+        <v>57.040914770000001</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="4"/>
+        <v>53.901054707999997</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="4"/>
+        <v>52.382915646000001</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="4"/>
+        <v>58.095910689999997</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="4"/>
+        <v>57.798660155999997</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="4"/>
+        <v>54.659265001999998</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="4"/>
+        <v>86.998747229420005</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="4"/>
+        <v>110.46477135816001</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="4"/>
+        <v>109.91376561292999</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="4"/>
+        <v>109.704324830289</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" si="4"/>
+        <v>101.38676527291</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="4"/>
+        <v>113.56889882175</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="4"/>
+        <v>125.8822996266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>28428416875</v>
+      </c>
+      <c r="C8">
+        <v>27321301966</v>
+      </c>
+      <c r="D8">
+        <v>49192435911</v>
+      </c>
+      <c r="E8">
+        <v>52012004217</v>
+      </c>
+      <c r="F8">
+        <v>49999222727</v>
+      </c>
+      <c r="G8">
+        <v>54639378938</v>
+      </c>
+      <c r="H8">
+        <v>42575693225</v>
+      </c>
+      <c r="I8">
+        <v>54065536106</v>
+      </c>
+      <c r="J8">
+        <v>81109351378</v>
+      </c>
+      <c r="K8">
+        <v>85682789567.359894</v>
+      </c>
+      <c r="L8">
+        <v>86070825700.979996</v>
+      </c>
+      <c r="M8">
+        <v>80421706054.199905</v>
+      </c>
+      <c r="N8">
+        <v>74322825373.809998</v>
+      </c>
+      <c r="O8">
+        <v>87605014787.399994</v>
+      </c>
+      <c r="P8">
+        <v>88646496967.359894</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>28.428416875</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>27.321301966</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="4"/>
+        <v>49.192435910999997</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
+        <v>52.012004216999998</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="4"/>
+        <v>49.999222727000003</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="4"/>
+        <v>54.639378938</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="4"/>
+        <v>42.575693225000002</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="4"/>
+        <v>54.065536106000003</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="4"/>
+        <v>81.109351377999999</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="4"/>
+        <v>85.68278956735989</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="4"/>
+        <v>86.070825700979995</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="4"/>
+        <v>80.421706054199902</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="4"/>
+        <v>74.322825373809991</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="4"/>
+        <v>87.605014787399995</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="4"/>
+        <v>88.646496967359894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:P10" si="5">B10+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>2007</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>2013</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>2014</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>2015</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:AG10" si="6">S10+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>2004</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>2005</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>2006</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>2007</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>2008</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>2009</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="6"/>
+        <v>2010</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>2011</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>2012</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>2014</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="6"/>
+        <v>2015</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="6"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5775095528.4300003</v>
+      </c>
+      <c r="C11">
+        <v>5122908261</v>
+      </c>
+      <c r="D11">
+        <v>6117347102</v>
+      </c>
+      <c r="E11">
+        <v>5878166001</v>
+      </c>
+      <c r="F11">
+        <v>5907392707</v>
+      </c>
+      <c r="G11">
+        <v>7605901499</v>
+      </c>
+      <c r="H11">
+        <v>8116471671.9200001</v>
+      </c>
+      <c r="I11">
+        <v>9464151561.0200005</v>
+      </c>
+      <c r="J11">
+        <v>11372894632.610001</v>
+      </c>
+      <c r="K11">
+        <v>8955427750.8700008</v>
+      </c>
+      <c r="L11">
+        <v>12104087598.58</v>
+      </c>
+      <c r="M11">
+        <v>12605190322.66</v>
+      </c>
+      <c r="N11">
+        <v>13656395106.91</v>
+      </c>
+      <c r="O11">
+        <v>16316010340.879999</v>
+      </c>
+      <c r="P11">
+        <v>21264112233.540001</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:AG12" si="7">B11/1000000000</f>
+        <v>5.7750955284300005</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="7"/>
+        <v>5.1229082610000001</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1173471020000001</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="7"/>
+        <v>5.8781660010000003</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="7"/>
+        <v>5.9073927069999996</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="7"/>
+        <v>7.6059014989999998</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="7"/>
+        <v>8.1164716719199994</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="7"/>
+        <v>9.4641515610200013</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="7"/>
+        <v>11.37289463261</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="7"/>
+        <v>8.9554277508700011</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="7"/>
+        <v>12.10408759858</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="7"/>
+        <v>12.60519032266</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="7"/>
+        <v>13.656395106910001</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="7"/>
+        <v>16.316010340879998</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="7"/>
+        <v>21.264112233540001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>3426249262.3400002</v>
+      </c>
+      <c r="C12">
+        <v>4496068422</v>
+      </c>
+      <c r="D12">
+        <v>5036566221</v>
+      </c>
+      <c r="E12">
+        <v>4799341080</v>
+      </c>
+      <c r="F12">
+        <v>5078956745</v>
+      </c>
+      <c r="G12">
+        <v>6534887767</v>
+      </c>
+      <c r="H12">
+        <v>5206805588.5599899</v>
+      </c>
+      <c r="I12">
+        <v>7455371340.2299995</v>
+      </c>
+      <c r="J12">
+        <v>9672431272</v>
+      </c>
+      <c r="K12">
+        <v>8179278207.3499899</v>
+      </c>
+      <c r="L12">
+        <v>7893800992.0200005</v>
+      </c>
+      <c r="M12">
+        <v>8364130909.4200001</v>
+      </c>
+      <c r="N12">
+        <v>9920079218.9500008</v>
+      </c>
+      <c r="O12">
+        <v>10635061658.3599</v>
+      </c>
+      <c r="P12">
+        <v>12062928632.6199</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4262492623400003</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="7"/>
+        <v>4.4960684219999996</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0365662210000002</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7993410799999996</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0789567450000002</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="7"/>
+        <v>6.5348877669999998</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="7"/>
+        <v>5.2068055885599902</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="7"/>
+        <v>7.4553713402299993</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="7"/>
+        <v>9.6724312720000007</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="7"/>
+        <v>8.1792782073499897</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8938009920200001</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="7"/>
+        <v>8.36413090942</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="7"/>
+        <v>9.9200792189500007</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="7"/>
+        <v>10.6350616583599</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>12.062928632619899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:P14" si="8">B14+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="8"/>
+        <v>2004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>2005</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>2006</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>2007</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>2008</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>2009</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>2010</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>2011</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>2012</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>2013</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>2014</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>2015</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>2016</v>
+      </c>
+      <c r="R14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:AG14" si="9">S14+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>2004</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>2005</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>2006</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>2007</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>2008</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>2009</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>2010</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="9"/>
+        <v>2011</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>2012</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="9"/>
+        <v>2013</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="9"/>
+        <v>2014</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="9"/>
+        <v>2015</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="9"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1884813986</v>
+      </c>
+      <c r="C15">
+        <v>1945673894</v>
+      </c>
+      <c r="D15">
+        <v>1920922628</v>
+      </c>
+      <c r="E15">
+        <v>1816043699</v>
+      </c>
+      <c r="F15">
+        <v>1984450044</v>
+      </c>
+      <c r="G15">
+        <v>2313814377</v>
+      </c>
+      <c r="H15">
+        <v>3055204429</v>
+      </c>
+      <c r="I15">
+        <v>3528530894.54</v>
+      </c>
+      <c r="J15">
+        <v>3785367938.0599999</v>
+      </c>
+      <c r="K15">
+        <v>1547565911.9200001</v>
+      </c>
+      <c r="L15">
+        <v>4705642848.7299995</v>
+      </c>
+      <c r="M15">
+        <v>4338823324.3199902</v>
+      </c>
+      <c r="N15">
+        <v>4540150693.5699997</v>
+      </c>
+      <c r="O15">
+        <v>5431652817.6700001</v>
+      </c>
+      <c r="P15">
+        <v>6393593489.5599899</v>
+      </c>
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" ref="S15:AG16" si="10">B15/1000000000</f>
+        <v>1.8848139859999999</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.945673894</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.920922628</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.816043699</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9844500439999999</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3138143769999999</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="10"/>
+        <v>3.0552044290000002</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="10"/>
+        <v>3.5285308945399998</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7853679380599998</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.54756591192</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="10"/>
+        <v>4.7056428487299993</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="10"/>
+        <v>4.3388233243199901</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="10"/>
+        <v>4.5401506935699993</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="10"/>
+        <v>5.4316528176699999</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="10"/>
+        <v>6.39359348955999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>1837599675</v>
+      </c>
+      <c r="C16">
+        <v>1340800826</v>
+      </c>
+      <c r="D16">
+        <v>1453229953</v>
+      </c>
+      <c r="E16">
+        <v>1652203472</v>
+      </c>
+      <c r="F16">
+        <v>1681579982</v>
+      </c>
+      <c r="G16">
+        <v>1954326471</v>
+      </c>
+      <c r="H16">
+        <v>2030251845</v>
+      </c>
+      <c r="I16">
+        <v>3101595084</v>
+      </c>
+      <c r="J16">
+        <v>3369333293.3800001</v>
+      </c>
+      <c r="K16">
+        <v>2562122563.3499999</v>
+      </c>
+      <c r="L16">
+        <v>2674998634.0900002</v>
+      </c>
+      <c r="M16">
+        <v>3352980987.5900002</v>
+      </c>
+      <c r="N16">
+        <v>4436700469.2700005</v>
+      </c>
+      <c r="O16">
+        <v>4265169652.8899899</v>
+      </c>
+      <c r="P16">
+        <v>4464687696.93999</v>
+      </c>
+      <c r="R16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8375996750000001</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3408008259999999</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.4532299529999999</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6522034720000001</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6815799819999999</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="10"/>
+        <v>1.9543264709999999</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="10"/>
+        <v>2.030251845</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="10"/>
+        <v>3.1015950839999999</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="10"/>
+        <v>3.36933329338</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="10"/>
+        <v>2.56212256335</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="10"/>
+        <v>2.67499863409</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="10"/>
+        <v>3.3529809875900001</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4367004692700007</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="10"/>
+        <v>4.2651696528899903</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4646876969399898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:P18" si="11">B18+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="11"/>
+        <v>2004</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>2005</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>2006</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
+        <v>2007</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="11"/>
+        <v>2008</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="11"/>
+        <v>2009</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>2010</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="11"/>
+        <v>2011</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>2012</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>2013</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>2014</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="11"/>
+        <v>2015</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="11"/>
+        <v>2016</v>
+      </c>
+      <c r="R18" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:AG18" si="12">S18+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="12"/>
+        <v>2004</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="12"/>
+        <v>2005</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="12"/>
+        <v>2006</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="12"/>
+        <v>2007</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="12"/>
+        <v>2009</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="12"/>
+        <v>2010</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="12"/>
+        <v>2011</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="12"/>
+        <v>2012</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="12"/>
+        <v>2013</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="12"/>
+        <v>2014</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="12"/>
+        <v>2015</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="12"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>44140454738.43</v>
+      </c>
+      <c r="C19">
+        <v>44173998910</v>
+      </c>
+      <c r="D19">
+        <v>65079184500</v>
+      </c>
+      <c r="E19">
+        <v>61595264408</v>
+      </c>
+      <c r="F19">
+        <v>60274758397</v>
+      </c>
+      <c r="G19">
+        <v>68015626566</v>
+      </c>
+      <c r="H19">
+        <v>68970336256.919998</v>
+      </c>
+      <c r="I19">
+        <v>67651947457.559998</v>
+      </c>
+      <c r="J19">
+        <v>102157009800.09</v>
+      </c>
+      <c r="K19">
+        <v>120967765020.95</v>
+      </c>
+      <c r="L19">
+        <v>126723496060.239</v>
+      </c>
+      <c r="M19">
+        <v>126648338477.269</v>
+      </c>
+      <c r="N19">
+        <v>119583311073.39</v>
+      </c>
+      <c r="O19">
+        <v>135316561980.3</v>
+      </c>
+      <c r="P19">
+        <v>153540005349.69901</v>
+      </c>
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" ref="S19:AG20" si="13">B19/1000000000</f>
+        <v>44.140454738430002</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="13"/>
+        <v>44.173998910000002</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="13"/>
+        <v>65.079184499999997</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="13"/>
+        <v>61.595264407999998</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="13"/>
+        <v>60.274758396999999</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="13"/>
+        <v>68.015626565999995</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="13"/>
+        <v>68.970336256919992</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="13"/>
+        <v>67.651947457559999</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="13"/>
+        <v>102.15700980008999</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="13"/>
+        <v>120.96776502095</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="13"/>
+        <v>126.723496060239</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="13"/>
+        <v>126.64833847726899</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="13"/>
+        <v>119.58331107338999</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="13"/>
+        <v>135.31656198030001</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="13"/>
+        <v>153.54000534969902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>33692265812.34</v>
+      </c>
+      <c r="C20">
+        <v>33158171214</v>
+      </c>
+      <c r="D20">
+        <v>55682232085</v>
+      </c>
+      <c r="E20">
+        <v>58463548769</v>
+      </c>
+      <c r="F20">
+        <v>56759759454</v>
+      </c>
+      <c r="G20">
+        <v>63128593176</v>
+      </c>
+      <c r="H20">
+        <v>49812750658.559998</v>
+      </c>
+      <c r="I20">
+        <v>64622502530.230003</v>
+      </c>
+      <c r="J20">
+        <v>94151115943.380005</v>
+      </c>
+      <c r="K20">
+        <v>96424190338.059799</v>
+      </c>
+      <c r="L20">
+        <v>96639625327.089905</v>
+      </c>
+      <c r="M20">
+        <v>92138817951.210007</v>
+      </c>
+      <c r="N20">
+        <v>88679605062.029907</v>
+      </c>
+      <c r="O20">
+        <v>102505246098.64999</v>
+      </c>
+      <c r="P20">
+        <v>105174113296.91901</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="13"/>
+        <v>33.692265812339997</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="13"/>
+        <v>33.158171213999999</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="13"/>
+        <v>55.682232085000003</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="13"/>
+        <v>58.463548768999999</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="13"/>
+        <v>56.759759453999997</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="13"/>
+        <v>63.128593176000003</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="13"/>
+        <v>49.812750658559999</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="13"/>
+        <v>64.622502530230008</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="13"/>
+        <v>94.151115943380006</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="13"/>
+        <v>96.424190338059802</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="13"/>
+        <v>96.639625327089902</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="13"/>
+        <v>92.138817951210001</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="13"/>
+        <v>88.679605062029907</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="13"/>
+        <v>102.50524609864999</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="13"/>
+        <v>105.174113296919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:P22" si="14">B22+1</f>
+        <v>2003</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="14"/>
+        <v>2004</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="14"/>
+        <v>2005</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="14"/>
+        <v>2006</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="14"/>
+        <v>2007</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="14"/>
+        <v>2008</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>2009</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="14"/>
+        <v>2010</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="14"/>
+        <v>2011</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="14"/>
+        <v>2012</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="14"/>
+        <v>2013</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="14"/>
+        <v>2014</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="14"/>
+        <v>2015</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2002</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:AG22" si="15">S22+1</f>
+        <v>2003</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="15"/>
+        <v>2004</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="15"/>
+        <v>2005</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="15"/>
+        <v>2006</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="15"/>
+        <v>2007</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="15"/>
+        <v>2008</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="15"/>
+        <v>2009</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="15"/>
+        <v>2010</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="15"/>
+        <v>2011</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="15"/>
+        <v>2012</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="15"/>
+        <v>2013</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="15"/>
+        <v>2014</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="15"/>
+        <v>2015</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="15"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>7659909514.4300003</v>
+      </c>
+      <c r="C23">
+        <v>7068582155</v>
+      </c>
+      <c r="D23">
+        <v>8038269730</v>
+      </c>
+      <c r="E23">
+        <v>7694209700</v>
+      </c>
+      <c r="F23">
+        <v>7891842751</v>
+      </c>
+      <c r="G23">
+        <v>9919715876</v>
+      </c>
+      <c r="H23">
+        <v>11171676100.92</v>
+      </c>
+      <c r="I23">
+        <v>12992682455.559999</v>
+      </c>
+      <c r="J23">
+        <v>15158262570.67</v>
+      </c>
+      <c r="K23">
+        <v>10502993662.790001</v>
+      </c>
+      <c r="L23">
+        <v>16809730447.3099</v>
+      </c>
+      <c r="M23">
+        <v>16944013646.9799</v>
+      </c>
+      <c r="N23">
+        <v>18196545800.48</v>
+      </c>
+      <c r="O23">
+        <v>21747663158.549999</v>
+      </c>
+      <c r="P23">
+        <v>27657705723.099998</v>
+      </c>
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" ref="S23:AG24" si="16">B23/1000000000</f>
+        <v>7.6599095144300007</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="16"/>
+        <v>7.0685821549999996</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="16"/>
+        <v>8.0382697299999997</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="16"/>
+        <v>7.6942097</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="16"/>
+        <v>7.8918427510000004</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="16"/>
+        <v>9.9197158759999997</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="16"/>
+        <v>11.171676100920001</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="16"/>
+        <v>12.992682455559999</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="16"/>
+        <v>15.158262570670001</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="16"/>
+        <v>10.502993662790001</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="16"/>
+        <v>16.809730447309899</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="16"/>
+        <v>16.944013646979901</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="16"/>
+        <v>18.196545800479999</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="16"/>
+        <v>21.747663158550001</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="16"/>
+        <v>27.657705723099998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>5263848937.3400002</v>
+      </c>
+      <c r="C24">
+        <v>5836869248</v>
+      </c>
+      <c r="D24">
+        <v>6489796174</v>
+      </c>
+      <c r="E24">
+        <v>6451544552</v>
+      </c>
+      <c r="F24">
+        <v>6760536727</v>
+      </c>
+      <c r="G24">
+        <v>8489214238</v>
+      </c>
+      <c r="H24">
+        <v>7237057433.5600004</v>
+      </c>
+      <c r="I24">
+        <v>10556966424.23</v>
+      </c>
+      <c r="J24">
+        <v>13041764565.379999</v>
+      </c>
+      <c r="K24">
+        <v>10741400770.700001</v>
+      </c>
+      <c r="L24">
+        <v>10568799626.1099</v>
+      </c>
+      <c r="M24">
+        <v>11717111897.009899</v>
+      </c>
+      <c r="N24">
+        <v>14356779688.2199</v>
+      </c>
+      <c r="O24">
+        <v>14900231311.25</v>
+      </c>
+      <c r="P24">
+        <v>16527616329.559999</v>
+      </c>
+      <c r="R24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="16"/>
+        <v>5.2638489373400006</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="16"/>
+        <v>5.8368692480000002</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="16"/>
+        <v>6.4897961740000003</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="16"/>
+        <v>6.4515445519999997</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="16"/>
+        <v>6.7605367269999999</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="16"/>
+        <v>8.4892142380000006</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="16"/>
+        <v>7.2370574335600004</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="16"/>
+        <v>10.55696642423</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="16"/>
+        <v>13.041764565379999</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="16"/>
+        <v>10.7414007707</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="16"/>
+        <v>10.5687996261099</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="16"/>
+        <v>11.717111897009898</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="16"/>
+        <v>14.3567796882199</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="16"/>
+        <v>14.90023131125</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="16"/>
+        <v>16.527616329560001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -16943,7 +25830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
